--- a/数据整理/stocks/A股/创业板/300616-尚品宅配.xlsx
+++ b/数据整理/stocks/A股/创业板/300616-尚品宅配.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.94</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1888</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>61.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.76</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.07</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000970</t>
+          <t>169104</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红睿元三年定期开放灵活配置混合</t>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95.55</t>
+          <t>41.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1349</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005970</t>
+          <t>020001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰消费优选股票</t>
+          <t>国泰金鹰增长灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0546</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005726</t>
+          <t>000970</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰价值精选灵活配置混合A</t>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>16.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9923</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011324</t>
+          <t>160215</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰价值精选灵活配置混合C</t>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>11.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6663</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>020001</t>
+          <t>005726</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰金鹰增长灵活配置混合</t>
+          <t>国泰价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6165</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160215</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4535</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>169104</t>
+          <t>005970</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+          <t>国泰消费优选股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.38</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>519022</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>国泰金泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>93.24</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>9.18</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>011324</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>国泰价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -856,15 +986,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>57.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.21</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.01</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8647</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -884,15 +1024,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>57.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.82</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.87</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7881</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000652</t>
+          <t>000970</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时裕隆灵活配置混合</t>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.98</t>
+          <t>43.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5591</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -940,15 +1100,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.18</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.25</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8064</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160215</t>
+          <t>000652</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
+          <t>博时裕隆灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>21.94</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6933</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005970</t>
+          <t>005726</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰消费优选股票</t>
+          <t>国泰价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5036</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000970</t>
+          <t>160215</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方红睿元三年定期开放灵活配置混合</t>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>75.56</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4893</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501063</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富悦享定期开放混合</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>75.69</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2724</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>002746</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>汇添富多策略定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>67.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>501063</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>汇添富悦享定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>75.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002746</t>
+          <t>005970</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富多策略定期开放灵活配置混合</t>
+          <t>国泰消费优选股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>67.24</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005726</t>
+          <t>519022</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰价值精选灵活配置混合A</t>
+          <t>国泰金泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1192,15 +1442,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>93.97</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>6.88</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300616-尚品宅配.xlsx
+++ b/数据整理/stocks/A股/创业板/300616-尚品宅配.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3604</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0070</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0076</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9995</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8369</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7553</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5940</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5222</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4719</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4294</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300616-尚品宅配.xlsx
+++ b/数据整理/stocks/A股/创业板/300616-尚品宅配.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2246,4 +2247,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6799</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6567</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300616-尚品宅配.xlsx
+++ b/数据整理/stocks/A股/创业板/300616-尚品宅配.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2379,4 +2380,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300616-尚品宅配.xlsx
+++ b/数据整理/stocks/A股/创业板/300616-尚品宅配.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2388,7 +2389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,17 +2400,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2419,14 +2440,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.34</v>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6108</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2435,14 +2478,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6034</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>16.89</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="4">
@@ -2451,14 +2584,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>10.44</v>
+        <v>16.89</v>
       </c>
     </row>
     <row r="5">
@@ -2467,13 +2600,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>11.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300616-尚品宅配.xlsx
+++ b/数据整理/stocks/A股/创业板/300616-尚品宅配.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2521,7 +2522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2532,17 +2533,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2552,14 +2573,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2037</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3">
@@ -2568,14 +2663,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3.34</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="4">
@@ -2584,14 +2679,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>16.89</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="5">
@@ -2600,14 +2695,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>10.44</v>
+        <v>16.89</v>
       </c>
     </row>
     <row r="6">
@@ -2616,13 +2711,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>11.4</v>
       </c>
     </row>
